--- a/draw_graph/TrustVSGroupTC/G500_TRUSTvsGroupTC_lowdegree_1.xlsx
+++ b/draw_graph/TrustVSGroupTC/G500_TRUSTvsGroupTC_lowdegree_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\TrustVSGroupTC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D6D5C2-B5A8-4241-9820-A0808BB51CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A536E34B-E0F7-4D1C-8845-24F0F824B240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -585,7 +585,7 @@
     <col min="10" max="10" width="23.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.375" customWidth="1"/>
     <col min="14" max="14" width="30.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5" bestFit="1" customWidth="1"/>
